--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/60_Muş_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/60_Muş_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82A6EF8-F98B-4851-A49E-67D4D1278C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F057457-8757-40DF-A7ED-23111B319BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{A9A5C10B-DB58-4FA2-A10F-B14E561DECF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{58B2E43B-BF91-413D-A888-D84E62CC9984}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -967,13 +967,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{EDACA43E-2EAE-472D-ADD7-436D244F8F88}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A032281C-2EFB-4E64-A52F-31242DCBC349}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B2D8708C-F151-46FD-A728-10E05A1783C0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{33D03C4C-31F9-4922-A5CB-3D0BA212832B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3A58F5ED-CC11-4D1B-A3DD-F46D12C7EF71}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{DBFFA9D5-990A-4AC4-8AE3-9106DE14C290}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{26159D8D-35EB-4339-94E2-5D3EC3F2FA40}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{04F60871-BAE5-4233-B747-0F9CC4C2D7DD}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{033F8F35-2569-403E-9D4C-C3C670C2F55D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{29B59EC8-18E9-468C-9F2C-6D409265B9F0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{AAD4CBBF-D0ED-48FF-A509-71CA8275752C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C73703C2-928A-42C3-95D4-03B6B99B59B1}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{3060EDFD-7E09-4C7C-83D1-65B8CA0D026B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{752744D4-543E-4559-9881-95873B5B8BCA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAAF566-7A63-4F40-ADF3-66FC23188920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA788A-12C2-46E2-9459-4F66D6FC0666}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2538,18 +2538,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8D797B3-9363-4ADD-A34D-582BFEA5764D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5ABB006-F032-49B9-8C08-A3B89D204C25}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B59D9CA-0579-4E49-88DC-30634B14AF7E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{75C943AE-F782-4ABF-B78F-98B751045210}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9FF5570D-2F31-4A9F-8152-ECCE0176494C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76A8E650-F4A3-4ABA-B4D5-D252AFC3CBE8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD3AF84A-376E-4839-8651-7E44140A3EAA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4B01565-CEAE-421A-80F2-B6580193D93A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43F7E5FF-51FB-4A7A-99A5-D1C7B01D0F9C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5340EC97-36DA-4EDD-A9EF-1F97CD70B304}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE718F77-A0E0-4373-A5E7-C374492B7AB9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAB32605-FB88-49CE-B0A3-01A33B051644}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8B19A6C-DAAE-497F-9911-6529D3386DB5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF4FFDA2-6680-415D-9F32-F919C722EC09}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{203A3AED-54E5-4B4E-8C21-066A27311D87}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{85946AA8-7C4B-4688-B813-9B47B5C1C438}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0C8A866-E9AF-4DFB-8048-4DC7404E103D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{270DDD88-DC16-4A5A-B302-4DAEFC6C2CF4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C82D1C3-E549-41F9-9D19-BFDD3D1899DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0DE47A3-6553-4E11-B449-C36E4AC42EF3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64E5D455-F05B-4DF5-BA55-0DAD589F3B8F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{087D1019-8B28-420E-9C55-E5CB37C8D01A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D71D155-80FF-4152-A3A5-7E2E1BBB4872}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AA27137-E9BE-4179-AF01-03056691EB3E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2562,7 +2562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C374AC78-41DC-493F-BB95-5B4159B14172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3D00E6-FD97-46F6-8150-F1A2BA8035DD}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3746,18 +3746,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3AC2AC7-0FB8-4ADC-B93B-D50EFAE0B415}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54899C03-B124-4FC2-8598-B409CE27F2DC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA70EA78-F212-4145-99F4-7172EC45FF4C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4BE70CB6-00B4-41F9-B2DE-B2BA572B6205}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41C2F2F3-6943-40C3-BDBE-B60043FADEA5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36FB478E-1358-4A8B-A132-6E9167DDBC0E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C6255D2-CCC0-437D-8EA2-C1B95857FFC9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C78FB4B6-BEC7-4984-8075-552F2A80D66D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34C14AB2-582B-4E4C-B6A2-5748C26B873F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{004B3B7D-63DC-4E2E-9CD4-7D62EEA8DC9F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8231C644-F6A4-4C76-84DC-78A8437898A7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F6C53B9-D7C3-432E-BC92-346BB2B1183B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50A148BF-95C2-44DE-A30E-3F4B8FE5B60E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C01C7E06-821B-4427-AC9F-B0F4C11C0752}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{20925D4A-852F-4A0E-BF03-0A8B43431746}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F4FE1A4B-83F7-487D-8AB4-93215C7FC492}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2CE7669C-5C73-4474-AFC7-35FBA52672D9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76CCB9E6-5FFE-48C8-98A6-776496F0FF59}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD41C2F0-5C69-4A1A-8BA8-8FAA04D0B6CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46F935BA-6AA8-44FE-83E6-389983289B5C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63EBE6F3-55A5-4973-9FC9-00ED39DFD33C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03368261-0882-4C39-98D7-BD57E197A8B6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFC3677A-5F8F-45CA-B388-782DBFF8B579}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC196987-417E-4D2F-9959-CF31CE2B418E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3770,7 +3770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA75C3-617B-4D38-89BF-78A71958CF9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BC9B8C-E2DD-4CC9-B8A8-BBB8DAB46FB0}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4954,18 +4954,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34E7979F-B14B-4AC5-B6D6-B41429491971}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{248CAC73-06F4-4A22-AB7F-205B3CB5DCD2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{360C7C7F-62F4-4FA9-A8E6-292B6473DE27}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BAD6A41-695C-4BA4-8770-CEA87B37DB73}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3DED4C25-BF7F-47F4-8EE5-E1E24660712D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DFB53F39-C083-4F21-A3E3-B8F7DCE7A1DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CEEECE9-A30C-4EEF-BE8A-6EC954A6B2DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{601300EA-B38C-4E2E-9B4A-D37EC08D7EDE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64CDD775-475B-47E5-928D-D3F09FAF0623}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9DF17CA7-D5EC-4AE3-86AF-D647CAD976F4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{475DB71C-4FC3-4E72-80FA-EC28EE6125AA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37C9844C-B9C6-49D3-A4C6-8384F7B3DB82}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE8DD91A-BC6F-43EB-A6AC-4E713C86824E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D5ED0DF-7A90-4ED5-8915-F68A0F03E10A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4DE5CAA2-3541-4691-BB0A-A9128F53A37F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89040F9C-B8CD-402F-AD30-BAC85924D5BE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74F2E52D-4157-4432-85FA-5569E63DA989}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1F216C5-A1E4-4CCC-92A8-1D82EA2E2046}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB89BD3A-1C03-4B21-9103-FEF7806B1A86}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F07D9587-16D1-4C98-B0A4-175452B988BB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C4881109-A068-4963-B15E-43DDBDC9D35C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{90BDEDE1-B28E-402B-90DF-78AD6EAEE733}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3DD243F-66BF-432D-8470-98FAB694B13B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F662C60-0EC6-433C-BE3C-9591CDA9BE3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4978,7 +4978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DB1772-732A-43CA-9DD9-602D9BF065A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9999941-19EA-46AE-B9B2-A857C01F90DD}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6158,18 +6158,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5D83630-C457-4645-B821-61927D14726A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47C209AA-9785-4860-81B6-40874BB8A42D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9D8DA948-CEA4-4606-B6F9-E0556C9638AA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{44757F58-A07A-4E15-BAAE-7B721B2C4326}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2678E813-8012-4448-95E8-F614492EB642}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F814DD6-F37D-4AFD-B062-B874B7CC22FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A39A82C-7F95-4B59-A541-0F53E5021E9E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F77D6B58-B784-4C51-9D42-94AE9198C7D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3C9CF20-9354-4CAC-98D3-751083185A02}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5DD8E9F4-9AA1-48EF-80BC-921E581A8918}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7E28A22-CEFD-4615-967E-C56D70260EC5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9CE497A3-2BB4-46AC-B007-ACCF354CF18A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C25359E-ABC7-4D27-8FE9-8F06DC5AA425}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CAB30118-1331-43AA-B7CD-0533DF017660}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{535D5BF6-41E4-4DCA-BD6E-7AA28A977250}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{996D1621-A594-4177-942C-E7C8CF6356E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32704DA7-6288-4FF7-9FBF-0EA20D6B9D6C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{18936A17-41BD-4545-A3E9-AEE2C06B3D95}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2447777E-2300-4F11-8CF5-85662CB88313}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D653DDFC-B9E0-4F6B-BF97-A8449BC2F3D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94457BC5-1488-42F7-B7EA-1141149A2E3C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E370890C-849E-4F20-BFAD-53D4BC2B755C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBEF7643-F541-4FD9-9865-FBEFD7D0822C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F58D85F-AA88-4AB0-9CF4-0ED3292B2732}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6182,7 +6182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F7CDF1-6499-4899-AF65-8AD90275CCE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D8E4E8-2A54-421E-801E-52FACC7856A1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7377,18 +7377,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50B99DAD-95E0-4F9E-89D7-8BA61EE671A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A5C7838-62E2-4F79-A795-7ED9A8DF2142}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6A4019B9-3BA3-4DF9-8882-C3E429C4A0DE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ADE224DD-D0EF-404E-9E02-B831344D2A84}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2E5EF33-0319-4B07-A196-CCCA2276D6F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70267B2C-67FA-4CF1-8BCE-A0AB65447813}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{175DB9CA-B78D-46B5-82B6-EC1A736ECD7D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{792B8A9E-EFFE-4A82-9B8C-727464F884E2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D9939D3-6DB9-4997-8691-838583B9B15D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A32812A4-CA6A-47EC-8791-F2E19F395EAD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B466DDF7-C1BF-4A4F-8B12-083A0156CE67}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54A67146-AB74-4831-8F59-6AC64321A7C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C10A1FF1-9F6B-445F-B5E3-A0FA30AC8333}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DBEC95B-0EF6-4EE9-9623-EC2543F057A9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B187D34F-640E-4E69-9F70-324937AB0195}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DEB67BD6-413A-42A0-8E51-2C0090B19BD3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{916D1547-8326-4040-B523-61F7FFFAB93C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D063EEE-EDD3-4DF5-ADD1-1D460997C83C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13B6171E-8CE3-44AB-B28F-EADA4C87ACA2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{837772A7-252C-48A7-89EB-D6B6D11AC4A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5ABC019-2370-4F76-9922-761652A892D0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{331138CD-2C79-4260-89E5-8BAFB8BFCA97}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6689B287-D07E-4FFD-89BE-9F8AD28B43AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B297175C-2DCF-42FB-8C14-65F241D9D569}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7401,7 +7401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F9FA77-D538-4838-9F75-60AD6A232A36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92D13E1-3DB5-4F9E-89F0-C94C3E21513D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8596,18 +8596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70F6D796-6FB3-451A-ABC6-91BC0590DE81}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A68ACFF-ACBC-4C14-B963-936D4BA8ACE3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F8C66ACD-9704-4889-8CB4-6AE6AA556A56}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{94DBF75D-4708-434D-B4E7-B5768C08C2CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46FABCFD-9AF0-444A-B80B-0821F14B9278}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{686CBDE0-FC9A-443E-BB97-7C15A04C074A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CF9F222-44F1-44A7-8BF5-596572E7AED7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03FBD822-4245-4BA3-8F4F-EC9CD3482C86}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58CCA9B0-089F-4B57-8FE3-4748C1A228CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{311B2166-A8F3-4C05-93A5-1C56E0600817}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ADC33729-032C-45B8-A0A8-8B1FF72E5FEF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60B56432-1BA5-4219-8E76-5D07A9956FDC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E906D69F-56BE-4126-AF3C-7DF48673AB15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40CE384F-D018-43F5-880C-41E8F94A2C6F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04030A83-B5CB-49F0-A69A-4B50CE778E17}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{57601641-589C-48EB-9682-8DB987C44B74}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF8980CA-3EF0-4B1F-B409-9EAADA6B5D80}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E438365-5434-4FD1-A49B-127C4D523E01}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{107F89F3-B15C-4605-89E7-B56B53FD034A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4726C026-5228-4128-881A-12D827C791F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9226F800-7DC9-4328-AD29-FC7E0E08F74E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EACFA765-7778-4E16-BBA7-F8AB6C13F204}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B33C2271-062E-4F9C-91D7-71314EBAC99A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{492CFCB2-D781-418E-BD07-D789C37022B7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8620,7 +8620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA21ABC-23E8-4C38-ACD8-4E4E9852A61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08F03B-9ACE-4159-9A8A-C1538328BC19}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9815,18 +9815,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50F690E6-D8DB-485B-8794-BACE08EC6774}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31AD8768-BF1C-4F1A-B1F5-68D270FD0BAE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A362F646-1E73-4349-BE5E-B86A2B6F2030}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F73DD591-1F69-4F6E-B50D-B28DF766AF41}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{148E0E59-83B7-4CAB-897D-2BD2C35D4691}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D609C399-9DDE-4EF8-8EAA-9EEF6BFFE2AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F254CBD1-9977-4EC8-BF93-3C6558603432}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91188C77-1518-4044-A7B5-99CD940E1A7D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8349853E-74B9-4169-BE64-2D4D0278E584}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7137709A-F76E-4934-95A2-1B24D683B078}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61D6345C-AB5F-490A-A731-3A79548BE5BF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0CBE13EE-F195-45C5-832C-7225083F8089}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B7DD92E-002E-4C01-9821-E74737A61EC9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96397061-3058-42A6-B89F-F9A0D6605E17}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E37D3E33-0270-4791-82A1-A1EC2220B479}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E0F8315A-491D-483B-9A51-8F762A6A000A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB92E021-9ACB-42D7-B6C1-0FC369CD031B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F53EC3D9-80D5-46B1-9C59-6B246F2FEDBC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{965103C9-DEAB-4855-A772-CEDEFA436040}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6622244-FA71-4C5C-B772-80FCB24F3235}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A18A3C07-B04D-4F46-A850-03459EC98AA9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{963951A3-51EF-421F-8C76-311D1259F82E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72C07F43-3C1A-48BF-9A4D-B1134DA52340}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{874B191F-AF94-4D3A-B27A-D09E30A30371}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9839,7 +9839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4138AE4F-3648-4A1F-859C-BB58EA70031D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D4D483-9714-4FE6-ABEC-DF5AFDA338CF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11030,18 +11030,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4F61DFD-009F-4D52-A6F3-F97C4DE9118C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C51E7ABB-45AB-4F26-A73A-62ADF0E2724B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7A72B0D4-8EFE-4540-8A77-2233AD0048F1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F00FD80A-0B8E-4369-A48B-2A39B86A3E04}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6B6CE58-D547-4CCA-8779-E269353FC35A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B758463-84D7-458A-9B10-76928C91F0DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1988E1C3-4A09-4E87-9723-E31D289160B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E37105AC-03DC-4690-9333-354E5CFCFF5F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73877956-41F5-4597-B8F8-8C09E8D8C11C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29680B5A-F0AB-40C1-A3A1-E3364A16AE14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{652FC0A8-F604-49C5-A109-51C8F37C6FCC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23F5BA75-6ACB-4DDA-8475-C0F1DBBE59C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E876093-EE76-4D7A-8E6C-2651FE927F38}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FE996B2-9EDF-406C-A1DC-4B509192700B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF737B20-FF60-4FDC-A54B-012F22F51AF4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ACAF4878-601A-42D5-9939-DB1A62456671}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F3194C8C-F5FC-46CE-A245-DF986F51509A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{038BADC1-732D-47C3-890D-EB363FECA4DA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A7AFC1D-D16D-4E02-9651-26DD638FEBA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70B430A8-88C0-4EE7-8D6F-3EF21BF9D062}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{751D2535-02C5-4577-AFE1-8E9E172425EE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{435A71D6-43E5-4E53-B928-C234ED37D232}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00307F2D-E85C-4299-84EF-701782CA57AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF72592D-0836-4B37-B295-B020A4BED5E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11054,7 +11054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF0E573-B860-48FF-97EB-7984F7489A5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230821F2-E6D6-4987-8965-8FBCF3396054}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12237,18 +12237,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B43C69D1-4518-4702-B75C-A85672AFE7CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7E3192F-B39D-44BB-9005-A510C58DFFF8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{289C0C40-6A72-4617-9B67-200E291D7D32}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{381BA6C5-B6C6-4D9B-9ECB-F7C3781BB51C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD6F9501-66E9-4902-A23C-E57C14289FC6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99C65161-0B97-4A96-A33D-624FB872DD25}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2D51442-3380-4794-8360-BF78EC3F0514}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD046388-285C-4A59-8F13-19D56E5E0AB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71716C12-6C99-4E33-9855-07A61BBA026A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9C864FA-74C4-44D9-8EDE-381B4F5823DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C03B5AA6-7430-4802-B7B2-BEB13F61046C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13C97A95-396C-4913-8133-E92206A199B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EEBC8978-8EE5-488F-B54F-948BE0BAB9B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC0DC58D-FC0E-47CA-9881-695E0FE689A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3168EB78-D2E4-477B-81B3-E864E19C11F4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9593E19C-57A8-456E-BD2F-14E75E8D04BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE00034C-703E-4643-9C7F-47B48A513CD8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{111473E7-ECE3-405C-A3A1-89AEBFEEA051}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99E9EA71-0245-4D57-A55D-21F4A158BE4F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75102BF4-4A09-47A6-A53C-122B4F481327}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0DB9F1AA-7F97-48D1-8671-01979FB7AB14}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{777D4BA7-6ED5-4064-8CD4-FB633E409A19}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80878931-D9B3-4F42-8F38-1796D060242B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BA1BAF7-2F4C-4BAD-BDD6-05589D247AC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12261,7 +12261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7EF23C-FC76-439E-9648-F3D4BAFB7CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39210A68-D601-4940-9DC4-B1953B515339}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13445,18 +13445,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9AAE1DF-6595-4A7B-886D-9A3C0750A405}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCF47649-8044-4F6A-B7A3-A334628C470B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A703F11-D13B-4A94-B86B-A4DBC3C25D8D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8BFCAAD3-6AD1-455D-8167-BEF5248A1874}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98EF8DCF-1550-4B22-9410-985BA8AB2472}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA209798-4103-4539-A929-F925D444A668}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B031805D-42D3-4157-B367-1C03D675CD97}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97B54A56-84B9-4C8C-907C-558552770678}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C20AE55-FB09-48B1-9157-606D41DC4937}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC986ECC-6CCF-4DCC-ADFD-F2F0D4B2FA21}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3D3B158-40F4-4A28-9CAD-8BDB922B2993}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A86D8B3A-202F-4697-908B-A09EACD9FAAA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF926DAE-545A-423D-87C3-94CD60B40B62}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15003CD3-4FF0-41F5-B3BC-952CA36F8E41}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB1B656A-209E-4D17-8CFC-3A35BA6B1962}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8AF906B7-01FA-49D9-BB1E-878DD0FFA85B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{978AE72C-F31C-41B2-9EA9-6C769798167B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{675F4C1D-F076-4027-AFC8-9E998DE446FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5CE10FE5-2DD1-4545-9D2A-A69C8C2300D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA396207-AE26-42A7-B79D-B95AE6E400B9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F212350F-A711-479B-A515-1ED4AB0B7C02}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6FE6048E-F908-49E5-AD55-22ECBE4E55A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0243029-319F-4A87-A768-8A124DCD7E9B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7359B744-6AEF-4DF9-8E88-4874358A4502}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13469,7 +13469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F88E2AC-F7E8-422B-82C8-30FA622E0FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F091F6-3AD9-4107-9684-CF613FEEEEE5}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14653,18 +14653,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16A8D853-3FC3-4693-9905-573DA78756D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3026E19A-43E2-4368-BC40-37C36B26D7BA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7968ADE8-C5E0-4BD7-A698-095CB7FA3909}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD6B9319-AA02-4A14-A8AB-6ECD41FCD203}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77C88A8C-2075-41DC-92E4-0E77248FD74A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{150360CC-9323-4B26-A4B2-BACEB9E1A973}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCF02232-EA82-4059-BED1-3E4D5D38EA6E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D78D6082-7A54-4B9B-B9F2-4AB432A8E510}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEFEBF7D-73A1-424B-9024-D2B7DE3265FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1BB57FD0-77F6-4174-849A-8A1949D7AD69}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7448EADA-28A8-4BF7-A618-C08A21C28E92}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21A7AEF6-264E-4D4A-893F-1D0FCA274E9C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF7AFA94-CDB7-430C-9242-90014D84F34F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC2A8708-C09A-427A-87C9-4CC5633A9E5F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A9D55C1D-1509-43FF-8715-876D4C077F4B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D8DD7F8-2EE4-446B-9987-C3A0A9D0A0FD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B485735-443F-47E7-8537-8543DBA1818E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0AB75DD2-3128-4590-96DC-F64C05D9DEF7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE181817-4EFE-4083-AB76-741279A581A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E40D9849-04ED-43D7-9629-6769552CD96D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F55DB62F-FD5C-48CB-B406-212FB3FE5E9A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{850F9F3C-C9B6-4647-97D6-91D193FEC0C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67DE7674-4DBF-4EA9-ACDF-88DECCC40CB6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B319E47A-37FE-4F7C-A4A6-E5BD5D49D26E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14677,7 +14677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B0739E-5AA7-4026-AD4D-69EE63D9FFAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B343312-6D1E-4761-9006-505837927C4C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15861,18 +15861,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC18BDFC-CE2C-4B9B-B804-DACB9D68C41C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1C72A39-BDE1-4A4A-8825-1DE4BBF64E54}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F9C90F42-4760-4D7C-A8A5-8611AF966934}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0DADA362-4134-4570-92CF-E66ECAB87C97}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2363DF0C-33ED-4F59-BB78-AE03740B3A8E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C9FCB4B1-E688-43F3-8D87-425CFE8A94EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88531CAA-C502-4B96-A1E8-D2C3ADCD02A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC0D4E33-8CBB-4DDC-9B43-0321328536F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76C3C343-55B5-4815-8A65-76FE19DE56D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C967984-EF83-485A-AFA3-E8208B7DC7D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8805B652-9E92-46F0-AC30-BA3E084BF685}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8B6A907-F863-4A78-A9E4-06FB1DB86A00}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7339717F-FC36-43A8-B44C-9785EF22E5F3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E168DBDF-A57D-4A5F-9A2A-5646B458C1B5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E688142-BC00-4644-A984-C1741C9C1359}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FFF63FA0-C7C3-40CF-8745-8B57AE9C2CA4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0C08E58-3B1C-4DAB-BB59-D446A50C9599}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{894AE2AA-6719-4842-98B2-54AE41E9E6A3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{612AE9F4-0E19-479A-8AAD-B7BBC8D413BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E19C597-29B0-46D4-BDA7-1F974B0C8647}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CD941D9B-5154-40CD-BCFE-286458EFC2B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B955C17B-D674-469C-A5DF-48CBBB4BEC7B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FAFEDA0-1A0A-495B-8626-902A01E0DC03}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F458A5A-0EBD-4126-835C-EE8129BCAF92}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
